--- a/testing/mobileapp/Birthday_mobile_test_case.xlsx
+++ b/testing/mobileapp/Birthday_mobile_test_case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Test Plans</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>the application should allow the user to delete the message.</t>
+  </si>
+  <si>
+    <t>Trying to reply to the  message</t>
+  </si>
+  <si>
+    <t>the application should not allow the user to reply to the message.</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -569,14 +575,23 @@
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
